--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299468.8733437747</v>
+        <v>319443.5900221434</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776012</v>
+        <v>2995243.613506391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.14494818</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790050.627124563</v>
+        <v>4813077.091074064</v>
       </c>
     </row>
     <row r="11">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="12">
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="T17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S17" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T17" t="n">
-        <v>24.30129424928645</v>
       </c>
       <c r="U17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2017,46 +2017,46 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>114.9211591858873</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="22">
@@ -2239,70 +2239,70 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>54.62509479698523</v>
       </c>
       <c r="X24" t="n">
-        <v>203.3816115706753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,58 +2473,58 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>68.67434453202564</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,43 +2728,43 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>39.08117332487345</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>49.23175083062952</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>4.586460976949843</v>
+        <v>81.48256270039882</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,10 +3123,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3269,25 +3269,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>71.01467844038818</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>69.85891295183787</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>89.93607067950306</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>201.0110693686163</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>55.26115413364287</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>91.83724698246469</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>213.4242636173429</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="F41" t="n">
         <v>213.4242636173429</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>187.9840913941556</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>16.58531419226327</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>153.8054552942166</v>
       </c>
       <c r="V42" t="n">
         <v>213.4242636173429</v>
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5516,19 +5516,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L17" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L17" t="n">
-        <v>55.73185102583861</v>
-      </c>
       <c r="M17" t="n">
-        <v>83.04597603355158</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N17" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5537,16 +5537,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S17" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T17" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="U17" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
         <v>2.207202020825291</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G18" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H18" t="n">
         <v>2.207202020825291</v>
@@ -5595,7 +5595,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
         <v>29.52132702853827</v>
@@ -5604,10 +5604,10 @@
         <v>29.52132702853827</v>
       </c>
       <c r="N18" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="O18" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="O18" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
         <v>83.04597603355158</v>
@@ -5622,22 +5622,22 @@
         <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I19" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
         <v>52.75142891054807</v>
       </c>
       <c r="T19" t="n">
-        <v>52.75142891054807</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.4883050441255</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,10 +5841,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>645.7885818937584</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>402.3398052496583</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>194.4883050441255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.4883050441255</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>432.4774131586771</v>
+        <v>908.880292079338</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>701.0287918738052</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>493.2684931088513</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>417.9156620931329</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>417.9156620931329</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>417.9156620931329</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6412,22 +6412,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6552,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>569.7098081763618</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.8480801015824</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="C33" t="n">
-        <v>512.8480801015824</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="D33" t="n">
-        <v>512.8480801015824</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>302.4969032051418</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>384.8025220944335</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>39.72595600240272</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>39.72595600240272</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>39.72595600240272</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>39.72595600240272</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>802.5825927271064</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C35" t="n">
-        <v>802.5825927271064</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="D35" t="n">
-        <v>802.5825927271064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E35" t="n">
-        <v>802.5825927271064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y35" t="n">
-        <v>802.5825927271064</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.215552771464</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>201.9193465970586</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>88.55021100463794</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="V36" t="n">
-        <v>168.215552771464</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="W36" t="n">
-        <v>168.215552771464</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="X36" t="n">
-        <v>168.215552771464</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.215552771464</v>
+        <v>340.6501720144431</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>475.3318284112885</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>229.833428471618</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>432.8749126823416</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.5233881080029</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>279.5233881080029</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>279.5233881080029</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>279.5233881080029</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>279.5233881080029</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>768.8110947902294</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>595.3937502408983</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.5233881080029</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="C41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="D41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="E41" t="n">
         <v>448.2340696092722</v>
@@ -7412,16 +7412,16 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>614.8420490346726</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
         <v>764.0369991773207</v>
@@ -7436,25 +7436,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="U41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="W41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.1972093345938</v>
+        <v>166.0083507506387</v>
       </c>
       <c r="C42" t="n">
-        <v>131.1972093345938</v>
+        <v>166.0083507506387</v>
       </c>
       <c r="D42" t="n">
-        <v>131.1972093345938</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>131.1972093345938</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
-        <v>131.1972093345938</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G42" t="n">
-        <v>131.1972093345938</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7497,7 +7497,7 @@
         <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>390.368997361522</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N42" t="n">
         <v>390.368997361522</v>
@@ -7515,25 +7515,25 @@
         <v>752.5275250222574</v>
       </c>
       <c r="S42" t="n">
-        <v>579.1101804729262</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="T42" t="n">
-        <v>562.3573378544785</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="U42" t="n">
-        <v>562.3573378544785</v>
+        <v>597.1684792705234</v>
       </c>
       <c r="V42" t="n">
-        <v>346.7772735945362</v>
+        <v>381.5884150105811</v>
       </c>
       <c r="W42" t="n">
-        <v>131.1972093345938</v>
+        <v>166.0083507506387</v>
       </c>
       <c r="X42" t="n">
-        <v>131.1972093345938</v>
+        <v>166.0083507506387</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.1972093345938</v>
+        <v>166.0083507506387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L43" t="n">
-        <v>746.4788889868139</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M43" t="n">
-        <v>785.6669271790361</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N43" t="n">
-        <v>829.3577778344724</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="V43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>853.6970544693717</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
@@ -8699,13 +8699,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8781,13 +8781,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -8942,7 +8942,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,19 +9012,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O17" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>167.5717993463377</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,13 +9489,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,16 +10592,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>373.6931947635578</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>253.1070822390753</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>373.6931947635578</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>249.5274280969312</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>277.2978653650641</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11145,10 +11145,10 @@
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>179.1516856726523</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>168.3593638339673</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>326.6746162331822</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23160,7 +23160,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>326.6746162331822</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="12">
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>115.5237560052377</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23555,10 +23555,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>326.6746162331822</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>181.4300443259292</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T17" t="n">
-        <v>198.7945553148449</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
         <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23823,10 +23823,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23862,10 +23862,10 @@
         <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23905,10 +23905,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7784131469302</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23932,19 +23932,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
         <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,22 +24011,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>117.8794279635379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,19 +24206,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,10 +24291,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>197.0698883639344</v>
       </c>
       <c r="X24" t="n">
-        <v>2.391373632802186</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>157.2670375489492</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.3884445891959</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>118.5639071305275</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>122.4514202732083</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,10 +24819,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>159.5219355582018</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="33">
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>153.0586194784511</v>
+        <v>76.16251775500213</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897356</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25157,25 +25157,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>335.8613673013232</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>33.37681640492011</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>19.53771989957721</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25281,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>142.8645164699222</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>149.9007559273302</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,7 +25406,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>138.4637327471508</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>82.08236302956777</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.320587170178442</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>193.9462786781062</v>
       </c>
       <c r="F41" t="n">
         <v>193.4517821243685</v>
@@ -25676,10 +25676,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>21.03597819208977</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>9.67158594678844</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25710,7 +25710,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>183.5794145025583</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>72.13592678675826</v>
       </c>
       <c r="V42" t="n">
         <v>19.37632353208235</v>
@@ -25843,13 +25843,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350057.1643459357</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350057.1643459357</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350057.1643459359</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351692.9620346291</v>
+        <v>351692.962034629</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506968.6860557794</v>
+        <v>506968.6860557797</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506968.6860557797</v>
+        <v>506968.6860557795</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506968.6860557797</v>
+        <v>488451.7788506225</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506968.6860557795</v>
+        <v>488451.7788506225</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506968.6860557797</v>
+        <v>488451.7788506225</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886783</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
-        <v>64504.44331886783</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
-        <v>64504.44331886782</v>
+        <v>68859.35582065163</v>
       </c>
       <c r="E2" t="n">
-        <v>64504.44331886782</v>
+        <v>68859.35582065163</v>
       </c>
       <c r="F2" t="n">
-        <v>64504.44331886783</v>
+        <v>68859.35582065163</v>
       </c>
       <c r="G2" t="n">
-        <v>69180.83107499292</v>
+        <v>69180.83107499294</v>
       </c>
       <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879939</v>
-      </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>96057.36704470609</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>96057.36704470613</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.4035187994</v>
+        <v>96057.36704470613</v>
       </c>
       <c r="O2" t="n">
         <v>95777.59137569282</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="C4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="D4" t="n">
-        <v>18071.29444042431</v>
+        <v>17259.16122044736</v>
       </c>
       <c r="E4" t="n">
-        <v>18071.29444042431</v>
+        <v>17259.16122044736</v>
       </c>
       <c r="F4" t="n">
-        <v>18071.29444042431</v>
+        <v>17259.16122044736</v>
       </c>
       <c r="G4" t="n">
-        <v>19431.86900355542</v>
+        <v>17342.80185901182</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>24335.47268063906</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>24335.47268063906</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>24335.47268063907</v>
       </c>
       <c r="O4" t="n">
-        <v>27170.08007885187</v>
+        <v>24262.6813373084</v>
       </c>
       <c r="P4" t="n">
-        <v>18071.29444042431</v>
+        <v>16126.11082971696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12805.54887844352</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="C6" t="n">
-        <v>12805.54887844352</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="D6" t="n">
-        <v>12805.54887844351</v>
+        <v>8456.449841782545</v>
       </c>
       <c r="E6" t="n">
-        <v>46433.14887844351</v>
+        <v>50042.48089557071</v>
       </c>
       <c r="F6" t="n">
-        <v>46433.14887844352</v>
+        <v>50042.48089557071</v>
       </c>
       <c r="G6" t="n">
-        <v>40509.47646213652</v>
+        <v>49620.68111876053</v>
       </c>
       <c r="H6" t="n">
-        <v>-851.2937183038703</v>
+        <v>2176.679400086767</v>
       </c>
       <c r="I6" t="n">
-        <v>56732.49342402778</v>
+        <v>59760.46654241845</v>
       </c>
       <c r="J6" t="n">
-        <v>56732.49342402781</v>
+        <v>59760.46654241842</v>
       </c>
       <c r="K6" t="n">
-        <v>56732.49342402779</v>
+        <v>59760.46654241846</v>
       </c>
       <c r="L6" t="n">
-        <v>56732.49342402781</v>
+        <v>58625.9393049389</v>
       </c>
       <c r="M6" t="n">
-        <v>56732.49342402779</v>
+        <v>58625.93930493895</v>
       </c>
       <c r="N6" t="n">
-        <v>56732.49342402781</v>
+        <v>58625.93930493895</v>
       </c>
       <c r="O6" t="n">
-        <v>55631.3160689065</v>
+        <v>58538.71481044997</v>
       </c>
       <c r="P6" t="n">
-        <v>46433.14887844351</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26.47527676494984</v>
       </c>
       <c r="M17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>27.59002526031614</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36209,13 +36209,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,16 +37312,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>143.5949833418711</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>110.973048317057</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>143.5949833418711</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>110.973048317057</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>47.19965394337734</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37865,10 +37865,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>37.01765175063403</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
